--- a/pedidos/bitácora.xlsx
+++ b/pedidos/bitácora.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Fecha</t>
   </si>
@@ -136,6 +136,18 @@
   <si>
     <t>Se excluyeron las viviendas que se inidca en el correo, esto no afecta el algoritmo de selección.</t>
   </si>
+  <si>
+    <t>DAMIAN RIVADENEIRA</t>
+  </si>
+  <si>
+    <t>Reemplazo UPM 010450900201</t>
+  </si>
+  <si>
+    <t>UPM de reemplazo 010353900201 y nueva muestra de UPM VERSIÓN 007</t>
+  </si>
+  <si>
+    <t>Se procedió con lo solicitado y con ello se genera una nueva versión de la muestra 007.</t>
+  </si>
 </sst>
 </file>
 
@@ -150,18 +162,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,10 +188,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +499,10 @@
   <dimension ref="A1:P2909"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="14" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="14" topLeftCell="P15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,7 +511,7 @@
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="65.6640625" bestFit="1" customWidth="1"/>
@@ -516,25 +522,26 @@
     <col min="14" max="14" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="75.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -691,7 +698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2025</v>
       </c>
@@ -722,7 +729,7 @@
         <v>28</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J6" si="7">CONCATENATE(B5,"-",D5,"-",E5,"-DINEM")</f>
+        <f t="shared" ref="J5:J7" si="7">CONCATENATE(B5,"-",D5,"-",E5,"-DINEM")</f>
         <v>M-003-DICA-DINEM</v>
       </c>
       <c r="K5" t="s">
@@ -735,7 +742,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ref="N5:N6" si="8">CONCATENATE("R-",B5,"-",D5,"-","DINEM-",E5)</f>
+        <f t="shared" ref="N5:N7" si="8">CONCATENATE("R-",B5,"-",D5,"-","DINEM-",E5)</f>
         <v>R-M-003-DINEM-DICA</v>
       </c>
       <c r="O5" t="s">
@@ -800,18 +807,59 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C7" t="str">
-        <f>IF(COUNTIF($B$3:B7,B7)=0,"",COUNTIF($B$3:B7,B7))</f>
-        <v/>
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>YaGüey</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8"/>
-      <c r="B8" s="4"/>
+        <v>005</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45874</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="7"/>
+        <v>M-005-DIES-DINEM</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45874</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="8"/>
+        <v>R-M-005-DINEM-DIES</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C8" t="str">
         <f>IF(COUNTIF($B$3:B8,B8)=0,"",COUNTIF($B$3:B8,B8))</f>
         <v/>
@@ -820,22 +868,8 @@
         <f t="shared" si="9"/>
         <v>YaGüey</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-    </row>
-    <row r="9" spans="1:16" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9"/>
-      <c r="B9" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="str">
         <f>IF(COUNTIF($B$3:B9,B9)=0,"",COUNTIF($B$3:B9,B9))</f>
         <v/>
@@ -844,18 +878,6 @@
         <f t="shared" si="9"/>
         <v>YaGüey</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C10" t="str">
@@ -927,7 +949,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="str">
         <f>IF(COUNTIF($B$3:B17,B17)=0,"",COUNTIF($B$3:B17,B17))</f>
         <v/>
@@ -937,9 +959,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18"/>
-      <c r="B18" s="4"/>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="str">
         <f>IF(COUNTIF($B$3:B18,B18)=0,"",COUNTIF($B$3:B18,B18))</f>
         <v/>
@@ -948,20 +968,8 @@
         <f t="shared" si="9"/>
         <v>YaGüey</v>
       </c>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="str">
         <f>IF(COUNTIF($B$3:B19,B19)=0,"",COUNTIF($B$3:B19,B19))</f>
         <v/>
@@ -971,7 +979,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="str">
         <f>IF(COUNTIF($B$3:B20,B20)=0,"",COUNTIF($B$3:B20,B20))</f>
         <v/>
@@ -981,7 +989,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="str">
         <f>IF(COUNTIF($B$3:B21,B21)=0,"",COUNTIF($B$3:B21,B21))</f>
         <v/>
@@ -991,7 +999,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="str">
         <f>IF(COUNTIF($B$3:B22,B22)=0,"",COUNTIF($B$3:B22,B22))</f>
         <v/>
@@ -1001,7 +1009,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="str">
         <f>IF(COUNTIF($B$3:B23,B23)=0,"",COUNTIF($B$3:B23,B23))</f>
         <v/>
@@ -1011,9 +1019,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24"/>
-      <c r="B24" s="4"/>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" t="str">
         <f>IF(COUNTIF($B$3:B24,B24)=0,"",COUNTIF($B$3:B24,B24))</f>
         <v/>
@@ -1022,20 +1028,8 @@
         <f t="shared" si="10"/>
         <v>YaGüey</v>
       </c>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="str">
         <f>IF(COUNTIF($B$3:B25,B25)=0,"",COUNTIF($B$3:B25,B25))</f>
         <v/>
@@ -1045,7 +1039,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="str">
         <f>IF(COUNTIF($B$3:B26,B26)=0,"",COUNTIF($B$3:B26,B26))</f>
         <v/>
@@ -1055,7 +1049,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="str">
         <f>IF(COUNTIF($B$3:B27,B27)=0,"",COUNTIF($B$3:B27,B27))</f>
         <v/>
@@ -1065,7 +1059,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" t="str">
         <f>IF(COUNTIF($B$3:B28,B28)=0,"",COUNTIF($B$3:B28,B28))</f>
         <v/>
@@ -1075,7 +1069,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="str">
         <f>IF(COUNTIF($B$3:B29,B29)=0,"",COUNTIF($B$3:B29,B29))</f>
         <v/>
@@ -1085,7 +1079,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" t="str">
         <f>IF(COUNTIF($B$3:B30,B30)=0,"",COUNTIF($B$3:B30,B30))</f>
         <v/>
@@ -1095,7 +1089,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="str">
         <f>IF(COUNTIF($B$3:B31,B31)=0,"",COUNTIF($B$3:B31,B31))</f>
         <v/>
@@ -1105,7 +1099,7 @@
         <v>YaGüey</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="str">
         <f>IF(COUNTIF($B$3:B32,B32)=0,"",COUNTIF($B$3:B32,B32))</f>
         <v/>

--- a/pedidos/bitácora.xlsx
+++ b/pedidos/bitácora.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Fecha</t>
   </si>
@@ -148,6 +148,24 @@
   <si>
     <t>Se procedió con lo solicitado y con ello se genera una nueva versión de la muestra 007.</t>
   </si>
+  <si>
+    <t>Reemplazo UPM 070150085601</t>
+  </si>
+  <si>
+    <t>UPM de reemplazo 070150031601 y nueva muestra de UPM VERSIÓN 008.</t>
+  </si>
+  <si>
+    <t>Se procedió con lo solicitado y con ello se genera una nueva versión de la muestra 008.</t>
+  </si>
+  <si>
+    <t>Reemplazo UPM 090150150201</t>
+  </si>
+  <si>
+    <t>UPM de reemplazo 090150024101 y nueva muestra de UPM VERSIÓN 009.</t>
+  </si>
+  <si>
+    <t>Se procedió con lo solicitado y con ello se genera una nueva versión de la muestra 009.</t>
+  </si>
 </sst>
 </file>
 
@@ -188,10 +206,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +520,7 @@
       <pane xSplit="9" ySplit="14" topLeftCell="P15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,26 +540,26 @@
     <col min="14" max="14" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="75.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="60.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="6"/>
+    <col min="17" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -729,7 +747,7 @@
         <v>28</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J7" si="7">CONCATENATE(B5,"-",D5,"-",E5,"-DINEM")</f>
+        <f t="shared" ref="J5:J9" si="7">CONCATENATE(B5,"-",D5,"-",E5,"-DINEM")</f>
         <v>M-003-DICA-DINEM</v>
       </c>
       <c r="K5" t="s">
@@ -742,7 +760,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ref="N5:N7" si="8">CONCATENATE("R-",B5,"-",D5,"-","DINEM-",E5)</f>
+        <f t="shared" ref="N5:N9" si="8">CONCATENATE("R-",B5,"-",D5,"-","DINEM-",E5)</f>
         <v>R-M-003-DINEM-DICA</v>
       </c>
       <c r="O5" t="s">
@@ -860,23 +878,110 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C8" t="str">
-        <f>IF(COUNTIF($B$3:B8,B8)=0,"",COUNTIF($B$3:B8,B8))</f>
-        <v/>
+      <c r="A8">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>YaGüey</v>
+        <v>006</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45902</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="7"/>
+        <v>M-006-DIES-DINEM</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1">
+        <v>45902</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="8"/>
+        <v>R-M-006-DINEM-DIES</v>
+      </c>
+      <c r="O8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" t="str">
+      <c r="A9">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
         <f>IF(COUNTIF($B$3:B9,B9)=0,"",COUNTIF($B$3:B9,B9))</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>YaGüey</v>
+        <v>007</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45929</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="7"/>
+        <v>M-007-DIES-DINEM</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1">
+        <v>45929</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="8"/>
+        <v>R-M-007-DINEM-DIES</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
